--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/3_Afyonkarahisar_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/3_Afyonkarahisar_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AC498F-3930-4219-9C74-DBA39CFA1564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA6004E-0AD0-4862-B972-2FAFC07875F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D8576EF-0ECD-49B0-B002-6A8328F0A74C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5E90498-7652-46FD-B8D1-CCB405B0FBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{41878105-DC5A-43D3-8A04-21121C65200E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A99A4689-B579-4E80-B0F3-A560CFEF9132}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{CF4502A4-54B7-4D1C-819C-F1107EC29850}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{EDD5842C-9B8E-4F2C-936D-5A5E2876C849}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{404708B5-104C-4601-AF01-D958875FC309}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{4CF4F969-68AA-4D6E-AD51-6319AB3F3B17}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{942AB7D5-5887-489C-94E6-A715A30225A7}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{6C96676C-F919-418F-A5AE-EC68B1ECF22F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF588A6-E386-49E3-B31C-1B711D3CD06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2E6259-C152-412F-94A9-CD4076AD3F5B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2459,18 +2459,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F11B02D1-0F7E-4C75-89AE-8503FFB5993E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9243F451-DD0C-4589-BC80-D93D20576EB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D8B5C24-DE75-4013-BE15-A05EA7E92844}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FF813A8D-4C17-4F4A-B38D-9DC90270EF47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9DA0C5BD-4137-4313-B8C4-970F01E5EC92}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{866CC571-AF93-41DE-B1B5-315FFD18DB18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1A1EC4E1-7315-450E-A8E8-CE7CCCEB6FE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B24A8213-4538-4300-958E-35521F11B121}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5A235C30-8929-4790-88AC-A0CF4B0E44F7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F40033AC-85D6-4D74-A122-88916084E74E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{097A2B56-894B-4EAB-B50E-E1703F8014B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{61150878-6F87-486E-A3D2-5B82977C6A66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{89D44644-AE6B-45D1-A083-62653625A17F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0EFCA565-68B2-4288-88CB-B9A3D59AC9E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{42FA1B47-8949-4BF1-B9EC-E1840A8B767E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0AAD1620-0690-4A54-B914-A9D8B8EAA8C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0D1D395C-C145-47AF-A19A-DF2D171EED9D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28A3213F-4EEE-4C1B-AEC9-3497F8CD271A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{523DEE35-7752-48B8-90D9-CB4E8E8C036C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DD2FAC40-A90D-4CE5-9C47-490935D50BB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE3ACB24-4886-4F59-A75E-9D6F6797BBFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CAB13FA7-2E2C-4937-8405-9D8D3FC21A3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6A35D7F7-6C0A-4BBC-B6F6-65CEB391FF70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{32E2F2DE-F1D8-46B5-9882-D60BFC5E2864}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2483,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEB1AE4-2FFA-43F4-B87F-1398C8541A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88BD7F8-E11F-44E5-A0FB-FC9C4B882952}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3684,18 +3684,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4D6118AE-E5F5-4AC2-AC62-FD39ABE2598B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{446A1935-44DE-4F24-8D04-22865A5D0BFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD5916E5-722A-4666-A0D7-066288A98277}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A3E6A81-7944-4A44-B235-EC5ABED7F285}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BC041BEB-963D-43AD-9E04-B8801B0E53AB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5284108A-EE1B-4E65-B84C-83AECAF626FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EB1E8767-F080-490D-B288-0B07FE447220}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A2F12175-D682-400E-BF5F-4E9A0807518B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{277D857D-DB77-485C-9EE4-1B6019A0F10E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5639596F-F683-44AE-94D1-28EDC8DF2595}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C78BA961-96D6-47BB-AEDC-6A7B7A505E3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BA1C723D-892E-4B06-B3DF-15DDBD2EFE45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{12A521CD-745F-4E9D-9848-8D5527630E3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C9C3C3B-6E9F-4602-84E3-40EA1E307CFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C15A8BB5-07AE-4B35-A0FB-5C50C2B6C07E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8DB45630-6594-4508-9E3B-6ECD50FCBA16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD1F0998-ABB4-4F79-B65C-152615A3410B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F085DF3-723C-4053-8013-7546B293A503}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{45E32585-5B3E-4C06-960A-4FC6CCDB3877}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{66AAB63D-67C2-4156-A00A-0C53DBA472FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6C7FEA6F-79E7-49B3-9AB8-5D393F8F40FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8612C3A-B816-456C-8254-421AD1A6DE3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6D942438-8CC4-4605-B8C6-96C9053E70E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A70E0344-3ED7-4D6C-A70E-C98FF75A827E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3708,7 +3708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58FAD3B-D425-41DF-8318-729FC60F4209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456306DC-13D0-4717-BBC2-0142C15156C5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4901,18 +4901,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BE1A337B-E887-414F-925D-BBA301671B92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AAD4D652-D7C0-42BB-A301-31CCD6C83783}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DCDF602C-3084-42CF-A137-D85A45C459D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A353C58-6DE0-443A-A95C-0782179F7A58}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{14EBB458-50D9-45B1-8697-703BB3792547}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{19BC88BF-1B81-4140-A844-12EB3440984C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B435B4C4-D63A-451C-8DD1-C0F8985C0AD7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D3564386-CBA4-4E5E-BF03-5BEAF8065B6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB308287-B21B-4E65-B4A9-6B987B4065CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8617D63F-C905-4EF2-86FC-371047F08F02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F28B2BDA-3A8B-4DB2-A6E8-9892DF3F7F9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3BD61591-FC91-40D2-A234-259BB88C434F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A8B37DC8-32CB-49A5-B5FF-5ACA4829DF82}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ECDB452F-DA17-4486-B72B-0EB4531E1825}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F6F475E-75F6-4D99-9B16-59BA152B60A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79E8324F-3D5E-4ECD-BCB0-44579B6C4DC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D0E9FA9-65BC-43C0-801A-128754D8DD07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E7282BB-4E72-4863-83FA-21AF749213AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4D9A3FD4-BFB3-4B74-96AA-50CBCB53D784}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2DE1974D-6B34-45C4-AC6F-C17ECBACBA8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C8C37762-7731-4C1B-82B2-1B2BBA9B6897}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0CB2D8A-FCA5-4E67-A232-317847E98F88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{92E95F6F-92AB-4DE2-8DDB-DAFCA378F4B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1232DC33-5C55-46A0-BB5B-E2F2C7903027}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4925,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C253178-01F4-49AB-BA8C-C04FAE9C182E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961816D9-30D3-4419-B4DD-272C771E95F1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6102,18 +6102,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6BF35654-E01E-48C7-BECE-8FBF7241FB81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9EBF8715-99A6-4BA4-A9CD-06C164E548E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{55CE2955-B2B2-41FB-B50F-C47207864F4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{42EF2BDF-F356-416B-B2A4-5FDC114A2FB1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88F40733-1CC8-4544-874F-814080243958}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4899565D-3A53-4B3F-A829-4AD6BAA556E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D223A442-9721-4BC9-8FB9-957EF938A097}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F245F1D7-1D28-4000-8875-A63AA7F2D96F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCC6498E-4E61-4ED2-AF8C-D0F0A86745F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B06F368-21C8-4F7C-809E-A884BCF25DC1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8415BA2D-EB22-4B0F-A012-488DAF87CEB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{614650D1-916A-4CDE-89F2-B691AC1D593D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{646BE225-396B-4233-BEF2-63F961542646}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F457721B-AF17-4C23-BA8D-F0924F293858}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E28D5F53-42B0-42AE-9228-FFF0DA1103AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D28881DE-AF26-4543-89DD-B1235D92AABD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{349A3CD5-EBB5-4F73-81C9-458C3A8B033C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A495CE15-B4F0-4218-9259-9F554FEDCA42}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D0794529-ABC6-4824-8EE8-17BD13F8CAA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D35A944D-D439-4277-98F7-08905B8AEC26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60A5DD93-7B37-4599-A8B2-0806790B50EE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B778F770-4B3C-4295-A96B-7EE0196B286F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A3DDD91A-D040-4DFD-BBA5-2328E8DE452C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0EAA4BDC-7F6A-4284-A873-775E63227FF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6126,7 +6126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E370B-C262-4562-BF49-048BE06F4B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE71F0BE-DB2C-478B-BD72-192B83D6899D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7347,18 +7347,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F2ACF54-6DB3-4798-BD7A-C3B7B6CAC0FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B8298D12-EEDB-45A4-971D-98508CB49DF7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AAB2EDC2-42A1-41DB-B29A-B00DCBE75B91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FF8C9F11-31AF-49F1-B722-E40DE8057AC2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0F271691-1791-4471-8037-52471EA00CED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{124DB122-04BD-4454-8622-72157AD1E756}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{269732C4-0ADD-40AF-8E44-FBBFF07D3F44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FE621239-CCFB-4BDE-ACC1-24D882778E15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DC38BEDD-79A4-4D8B-A236-4D6FDA040AB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0F888F68-3A4E-4CC9-8173-BED5BCDFCD6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E274F0D5-6E11-4CE8-B478-FEC6FAD7BF6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A2FCC5A-5300-491A-8B32-FFD198C385A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F319D71B-B942-4BE8-8CDD-F1E75956080E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49363E2F-FE15-4824-B6DC-4F4106F81B2C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA516D25-6EC2-4D42-BEA6-9D784822CF32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{301B9FB0-E5BA-4E3B-B121-355E8AA220C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BBA57675-0A08-485D-8255-0DE93AD48DA5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{656B5C2D-42F5-4D8B-8E42-5E90B2A140FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9DB54C1D-A183-4367-95A5-10E9D3830AC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90152517-B7F8-443D-9328-135BBAE73F8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0EDFF201-3649-4FED-AB5C-2CC5D9219226}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BACC852-2904-4C00-925A-96A8E1F1D7BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{54473B3F-03B7-4D29-BF9F-DC5FB9CADB94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFA634DA-30C6-4933-AB45-EED485B33E66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7371,7 +7371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9F4D24-6B64-4E82-9953-0B1F70BCDA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561FC37-1065-46D9-BEF8-EC6AD6E435F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8592,18 +8592,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FA41982C-A7B1-4C3D-AD78-D0DEFCB91F11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E12E33FF-1048-46C1-BCCB-DCAE55261A95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1A0F6A3C-C786-4932-A709-5EC9D6F6B915}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5BDD701A-33E2-45E5-B9A9-E4BD733F2AA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6EFC52C-A48E-4229-B802-7897381865FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7DBDAA5C-6EBD-431C-A3B3-0E767A1AFF5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C5A8327F-4F0C-4DD3-99F4-3C5ADA390DD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{545FFDEB-DDF1-444B-AC7D-0F13F528BF6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AC1F4828-2AFD-4391-BC49-39EDD23DE9A3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E52D7A0F-6596-4A5E-A5E4-6219154B1F5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FAFDFF05-D2C3-40A6-B55A-4778A1D21C9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{192F9A49-904A-4EFC-B6D2-50272FA9779E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8554CF5-07B2-45FD-B4C6-E5AC90C42C9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC9FBC8D-BA79-42DB-81C7-F5B639384815}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05111966-E8A0-4F42-B70D-C7E9AA22A320}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{61B7A99F-1F25-4677-B533-F3B81B820F03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9C526F42-80A3-47F8-960F-2512AE55EBCD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28E20333-5481-408E-A780-44173AE93AE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B7A4493-1BCA-4360-B442-EE7942D3A633}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BFBC4DF2-BD89-456B-A927-66F13FEC1100}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7B1C658D-BC70-4BA3-9A36-972FF09DEE5F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3A63C27B-CF0B-4AAA-8236-77106120BF84}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{445EB1B4-74F5-4CCE-BD7B-D89891F2C11D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C97BE74E-5B32-466A-9CDD-EF9387131121}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8616,7 +8616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD81AC-3051-44DB-8CF3-E7A5FFCDF790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DEF543-C3B7-4DDC-A26D-64534B76F32F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9835,18 +9835,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{374AC877-13E1-456A-896B-0D609421E07B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C415B51A-2F13-4186-B442-D4801F3B8B8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE7DD71D-A69E-4D13-AEEE-B40B983F69AD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D5050662-4C7C-4027-BB2E-9DB33D3C11F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{252A8539-E216-4087-97A2-04D2450FC0C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{494C6F5E-9D06-4735-94B8-EB7A96257D7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F7C6C711-024E-4573-9480-AC773EFEFBCB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4C99D9F0-186D-4BDB-BD41-6352EEB74FE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B8AA3CBB-0479-46B6-A67D-A010268BA1D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DE211FD8-BD67-4956-BD2A-038791131942}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6D5DE04-52AB-4C5A-BFA6-E7449414647C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ADB174C7-9F89-4935-B686-6DA4896FB345}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F033ED64-D265-49F5-A518-03DC5E0F978D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{19E2F059-D5AA-4404-BF90-0C34B0E8F8DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE5C1057-FA2A-4153-B5D4-73258A840D28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FBB9FBD6-6643-498C-A016-5C0B9F87F1B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4EB50F59-D278-4559-A805-4077E98CFC1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AE463970-5431-47D1-AE58-E297849A51B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E35CA923-F6F7-40DA-9F2A-1C9686D1BD7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8898D905-30A3-44B3-AB1A-E80BDA3D88C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0BBF9C23-4E89-408D-B18A-338B4005C941}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BAA9B14-FAFA-4358-98A0-42EDC34A65AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4C191D85-D6EB-4370-8C1D-F4A14E6F3BC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2CB8F6E5-54B4-417A-BEB2-6B2D8081F85D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9859,7 +9859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154DA64E-66AC-4C22-9B9B-1F9E0C3815BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DCB371-C010-4A0D-ACC2-315750353E28}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11068,18 +11068,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F0E6106E-C2DB-4D8A-B62C-56DB77F34B4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BD4B88A6-7F04-4FD6-B8DF-58CB93D4E9A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1D247AB1-69CD-4C6C-A8F4-4CDA9B00A3AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6636D399-BE01-4049-9143-6994DF30F35A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED8DFB7A-035C-4C41-B60B-A92E6B7A527E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4F4341C0-EE30-413C-957D-DA386D3294D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{42D6D52D-751A-4B9B-9773-FDEBD962E1D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{23DD6675-D167-4544-8E71-A0701D7B94ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E721288D-54BE-43F4-911D-A3D47EB6F3D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2839A6F6-3417-4011-8FE8-A39FFE96085D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8CCEBBEF-CB40-4F85-9319-96968DA654B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A141B92E-F92C-4659-81D6-B5CB0FD0099E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90AD5D28-8F9A-432B-A640-DB0048AD2672}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DB585D5F-9F86-4413-869A-56E43A63CBA2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AAA78644-269A-40B7-A9D3-378F8FC9426C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7BEB947F-519F-462C-A88E-ECE98414184E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C4EB55C2-0AD2-418F-96B7-F241EDE1D2B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0947CA98-23D4-4B1F-B5F7-B7B413B3C289}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9DDA8952-4A3D-4A7D-8FF0-EB091989C165}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F291297F-29D8-4C46-A7DD-705FD91DDCBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C0CCD58D-A86C-4D9D-B563-6F217C27EFD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3CB97AB0-FF15-4952-B872-5B1651A04A91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DC276F9-E6E8-4154-89D7-42750EDF8044}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2F55B7A6-AC83-4606-AEFE-5353F951119C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11092,7 +11092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA77671-9B6D-4615-A0B6-0A9DB25EE088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AF0C6-C674-49A1-B6D5-42D8E6D06B69}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12301,18 +12301,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{27FC00BA-80E5-4513-A017-C294F21712E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{958265FC-41A1-45EF-8B83-7C0C6BF6A1EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3077286-C53D-42CF-B41F-C2B66FE72957}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2AD9483F-473C-4CD8-A79C-B6C18ECEC6C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A50F5ED-E377-4ECB-8010-E3CCE9F944FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55597146-A36B-4C9F-A864-C8FB9E0ED722}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{247FF9AC-9185-413F-85B3-82C25D20DBD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86F083AB-6A04-4C7B-8DF4-0D196450941B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{43B22AB0-8407-41B4-BCED-8D53EE7E7C99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF88E44F-818E-46E0-B589-C848FC31D16E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9BC0A4B-FB62-4771-A7C1-A75DA6F30934}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8ECD0B63-A0CC-4396-9276-8B316019A7D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{17BF09AB-8F66-4CA2-8BCC-96662F79B67B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79A8D9BB-F210-48BD-A3E5-87EA3AA15FE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DB846F49-BA94-4FA3-B765-F144FE8A94E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{102810A8-4FD7-4A0A-96D0-6CE1AD97D8DA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1EAD981E-F27C-4524-AC00-07DFB2508647}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D5F32710-D519-4A9A-AB2C-D1B26E1D1922}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB184A48-BBD3-475E-92F6-02ABC3422E9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C1C4BC4-6C23-42F1-9E6A-02ABC5CA33E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5FD7EFD-4C9C-4D40-8B62-9D0A48B8325E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{51D85349-6622-4158-8633-888E1F237B9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{47DC1EA5-B15F-4667-88A1-EB5BDAA132AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{223BBEDF-A06E-4DF4-B990-5949B7F39216}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12325,7 +12325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EAE7A0-89DA-4341-9392-DD16C5551A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD1C2C-38F6-464C-BD96-215172E9222E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13534,18 +13534,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{25449A06-D01D-4C00-B6ED-4293BD376E45}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0CAB3BD0-4D32-4D54-AF03-A6A54E1F77E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0ACC7EE7-2C7E-48BA-A9D3-62243EB06A17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{628E8EDF-4DA2-45A5-B8C8-7D31C8DB342F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1D9B795-AA95-4249-BAB6-A96F06C71D8B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4DBA6072-0A64-4F88-87D3-C6200B360B02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B0AE8B1E-FC45-4EED-B1F4-FFCA201CD4F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D7CB7436-D484-49EC-A10C-49A7E88AD1CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D73893AB-A566-4364-8FC3-36E5E475B98E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8E33E159-3AFD-4D10-A5C7-4B25C29A456E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34D64D2C-B48A-4A50-8AC8-A8D92EB230F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B5B72B19-461E-4071-8B4E-338625CC410F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{545506D8-B32E-4210-93A2-E9D2FC6B3FA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{480E78D0-A768-4636-872F-0BC4E8742465}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20A181C7-56F0-40B7-8AC0-0E5991F4F1AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{03332B84-659A-40EC-AA72-D4BD849E6DF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{94D82B18-6D4E-4EAD-BA96-F80C7ED5467A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{78447C0D-ED70-4A17-AB96-E13CB8A1B982}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3EB6AA4E-E6AE-48C8-BF51-40C4DB8740E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{57EF78A9-6559-48AE-A5AC-83DDFBC4C82C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{42280AB1-EE05-43EE-9B8A-CF63700E65D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2EB9663F-D44A-4735-9DAC-14ABAFF66348}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F70F333-979F-48E7-9C5F-97B067FE4B02}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EAF89638-B45F-48E2-ACCA-23453A191A25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13558,7 +13558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2EFA13-D5F1-437B-8213-53697E3F6E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349EBA6-1021-4430-8BF4-1C25F1551AEE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14767,18 +14767,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EF3D3CCA-C7A5-4B94-80EE-CF2DE3F6B8E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA04869A-9E0C-4E6C-9715-D789ACE8BA41}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{77F98962-F1D7-4B67-8DBB-C76D4F87BC4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6BAAF44F-F0D1-4013-A1F3-99E42114C536}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{31CB56D8-74FA-4181-BB86-3618C36E0C39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99E91BEA-20CC-46B0-9E15-366990BC094C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0329546B-3772-4402-9289-C34E1EFE49C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{34BB2F52-6D4A-48BC-9463-3DF69F2A2116}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A53C5EBC-3D71-4DD4-9C16-C74EAB533006}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8EE4ADB1-ECB5-46EE-9EDC-32CA27E52ED7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF2B5FA5-8394-4103-AC01-3AEE83A0D5B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC23C8A5-685F-4F82-BBD4-E5F7A70098C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46B4814A-3790-471B-BCEC-19130C4ED44A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{35A481D8-1E7D-4505-AE60-7DF36D1C6835}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AB2E0555-567F-42CA-8B49-2841A7FE6C51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{962C6E4C-1AF3-4751-8816-BFB96A6DFEB9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0BF94DE7-F303-4830-ABA9-256C672E0DE7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5961C98C-625A-4914-967B-AAF7369C85AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2F7FDF92-2F5D-4382-AED2-03B6FF060B18}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8FD0CCE8-E93A-4AB9-865D-58ACB3EEFC3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C4B2659B-3829-43AE-A77D-D519E8504820}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E99EFFE2-EF2D-4874-9842-938FCBBE9941}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DEDAEC0B-CC5C-400A-BAE2-1BAC54CE6505}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3B837745-680A-460D-AED2-56F3C22C9719}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14791,7 +14791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DFD545-CAFE-4988-8A81-7041A486053C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A336388D-5747-4788-A4FA-14D11E255F0D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15996,18 +15996,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16DDDA23-C5CD-4558-BF20-BEE9DF885A01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{94BF8366-9883-4326-BFE6-3DC74BE40648}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{76A2AA44-3267-4F77-BF2F-4451F9CF23D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C3672CEB-BC48-4D0D-B286-A48614C340FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7113814F-BF90-469D-AE61-1C971C7653D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{449C133B-9A80-41CF-92BE-F4258F21A043}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A2F8B513-5D47-4B80-BADD-FD09C97AECD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2989CF67-F3EF-42DB-9E86-9CD7AC650AB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{35D23C80-88A7-4A40-8C3A-A549678A5A92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4D72B3D0-14A1-4626-9C7D-73BE2C15ECB9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{358E4DBD-903C-4AB4-A072-9774A44ED711}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{420563B9-3566-4BC2-90E0-ACFE438F3826}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57F5DF4D-8030-4F02-B972-9A19153045A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F38F5A48-6260-43E6-910E-26AE58FB4596}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{936F4F37-5605-4B22-8F4C-354B30F987DF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F6362981-F17A-47F1-8002-DBDE3674C59B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AD2FD4ED-BADD-4305-B91F-918BC76EB8A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E5870B8A-106A-4641-8672-1BE168A0FA24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2D49C72C-13BD-4D0E-855E-9812EC5030D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5AFAEB00-9DB3-4BE4-9702-BCFD26B87D7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{98EA4141-4F95-49F6-B440-178CE969FD70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B3F4C981-E12F-4018-93BF-0908124DCAC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B9A86A0D-C5F5-486A-A398-25BA603B5A84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{179A8158-D2FA-465E-8A08-E912B1AC189D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
